--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.330203</v>
+        <v>12.44313933333333</v>
       </c>
       <c r="H2">
-        <v>18.990609</v>
+        <v>37.329418</v>
       </c>
       <c r="I2">
-        <v>0.8286257135650145</v>
+        <v>0.9304541596872169</v>
       </c>
       <c r="J2">
-        <v>0.8286257135650146</v>
+        <v>0.930454159687217</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.463391</v>
+        <v>52.271196</v>
       </c>
       <c r="N2">
-        <v>88.390173</v>
+        <v>156.813588</v>
       </c>
       <c r="O2">
-        <v>0.5524066141697462</v>
+        <v>0.6500553798777896</v>
       </c>
       <c r="P2">
-        <v>0.5524066141697463</v>
+        <v>0.6500553798777895</v>
       </c>
       <c r="Q2">
-        <v>186.509246098373</v>
+        <v>650.417774947976</v>
       </c>
       <c r="R2">
-        <v>1678.583214885357</v>
+        <v>5853.759974531784</v>
       </c>
       <c r="S2">
-        <v>0.4577383248444396</v>
+        <v>0.6048467322343433</v>
       </c>
       <c r="T2">
-        <v>0.4577383248444398</v>
+        <v>0.6048467322343433</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.330203</v>
+        <v>12.44313933333333</v>
       </c>
       <c r="H3">
-        <v>18.990609</v>
+        <v>37.329418</v>
       </c>
       <c r="I3">
-        <v>0.8286257135650145</v>
+        <v>0.9304541596872169</v>
       </c>
       <c r="J3">
-        <v>0.8286257135650146</v>
+        <v>0.930454159687217</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.408729</v>
       </c>
       <c r="O3">
-        <v>0.002554408429577191</v>
+        <v>0.001694346062422021</v>
       </c>
       <c r="P3">
-        <v>0.002554408429577191</v>
+        <v>0.00169434606242202</v>
       </c>
       <c r="Q3">
-        <v>0.862445847329</v>
+        <v>1.695290632191333</v>
       </c>
       <c r="R3">
-        <v>7.762012625961</v>
+        <v>15.257615689722</v>
       </c>
       <c r="S3">
-        <v>0.002116648507694888</v>
+        <v>0.001576511341730226</v>
       </c>
       <c r="T3">
-        <v>0.002116648507694888</v>
+        <v>0.001576511341730226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.330203</v>
+        <v>12.44313933333333</v>
       </c>
       <c r="H4">
-        <v>18.990609</v>
+        <v>37.329418</v>
       </c>
       <c r="I4">
-        <v>0.8286257135650145</v>
+        <v>0.9304541596872169</v>
       </c>
       <c r="J4">
-        <v>0.8286257135650146</v>
+        <v>0.930454159687217</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.839492</v>
+        <v>24.41792966666667</v>
       </c>
       <c r="N4">
-        <v>59.518476</v>
+        <v>73.253789</v>
       </c>
       <c r="O4">
-        <v>0.3719689496218465</v>
+        <v>0.3036664120961408</v>
       </c>
       <c r="P4">
-        <v>0.3719689496218466</v>
+        <v>0.3036664120961408</v>
       </c>
       <c r="Q4">
-        <v>125.588011776876</v>
+        <v>303.8357010738669</v>
       </c>
       <c r="R4">
-        <v>1130.292105991884</v>
+        <v>2734.521309664802</v>
       </c>
       <c r="S4">
-        <v>0.3082230363044315</v>
+        <v>0.2825476762921468</v>
       </c>
       <c r="T4">
-        <v>0.3082230363044316</v>
+        <v>0.2825476762921468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.330203</v>
+        <v>12.44313933333333</v>
       </c>
       <c r="H5">
-        <v>18.990609</v>
+        <v>37.329418</v>
       </c>
       <c r="I5">
-        <v>0.8286257135650145</v>
+        <v>0.9304541596872169</v>
       </c>
       <c r="J5">
-        <v>0.8286257135650146</v>
+        <v>0.930454159687217</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.897293666666666</v>
+        <v>3.585005</v>
       </c>
       <c r="N5">
-        <v>11.691881</v>
+        <v>10.755015</v>
       </c>
       <c r="O5">
-        <v>0.07307002777882995</v>
+        <v>0.04458386196364773</v>
       </c>
       <c r="P5">
-        <v>0.07307002777882997</v>
+        <v>0.04458386196364771</v>
       </c>
       <c r="Q5">
-        <v>24.67066006061433</v>
+        <v>44.60871672569667</v>
       </c>
       <c r="R5">
-        <v>222.035940545529</v>
+        <v>401.47845053127</v>
       </c>
       <c r="S5">
-        <v>0.0605477039084484</v>
+        <v>0.04148323981899672</v>
       </c>
       <c r="T5">
-        <v>0.06054770390844842</v>
+        <v>0.04148323981899671</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.8272856666666666</v>
+        <v>0.8272856666666667</v>
       </c>
       <c r="H6">
         <v>2.481857</v>
       </c>
       <c r="I6">
-        <v>0.1082919735534193</v>
+        <v>0.0618615101204856</v>
       </c>
       <c r="J6">
-        <v>0.1082919735534193</v>
+        <v>0.06186151012048561</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.463391</v>
+        <v>52.271196</v>
       </c>
       <c r="N6">
-        <v>88.390173</v>
+        <v>156.813588</v>
       </c>
       <c r="O6">
-        <v>0.5524066141697462</v>
+        <v>0.6500553798777896</v>
       </c>
       <c r="P6">
-        <v>0.5524066141697463</v>
+        <v>0.6500553798777895</v>
       </c>
       <c r="Q6">
-        <v>24.37464106569567</v>
+        <v>43.24321123032401</v>
       </c>
       <c r="R6">
-        <v>219.371769591261</v>
+        <v>389.1889010729161</v>
       </c>
       <c r="S6">
-        <v>0.05982120245240404</v>
+        <v>0.04021340746118599</v>
       </c>
       <c r="T6">
-        <v>0.05982120245240406</v>
+        <v>0.04021340746118599</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.8272856666666666</v>
+        <v>0.8272856666666667</v>
       </c>
       <c r="H7">
         <v>2.481857</v>
       </c>
       <c r="I7">
-        <v>0.1082919735534193</v>
+        <v>0.0618615101204856</v>
       </c>
       <c r="J7">
-        <v>0.1082919735534193</v>
+        <v>0.06186151012048561</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>0.408729</v>
       </c>
       <c r="O7">
-        <v>0.002554408429577191</v>
+        <v>0.001694346062422021</v>
       </c>
       <c r="P7">
-        <v>0.002554408429577191</v>
+        <v>0.00169434606242202</v>
       </c>
       <c r="Q7">
         <v>0.1127118810836667</v>
@@ -883,10 +883,10 @@
         <v>1.014406929753</v>
       </c>
       <c r="S7">
-        <v>0.0002766219301004044</v>
+        <v>0.0001048148060881248</v>
       </c>
       <c r="T7">
-        <v>0.0002766219301004045</v>
+        <v>0.0001048148060881248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.8272856666666666</v>
+        <v>0.8272856666666667</v>
       </c>
       <c r="H8">
         <v>2.481857</v>
       </c>
       <c r="I8">
-        <v>0.1082919735534193</v>
+        <v>0.0618615101204856</v>
       </c>
       <c r="J8">
-        <v>0.1082919735534193</v>
+        <v>0.06186151012048561</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.839492</v>
+        <v>24.41792966666667</v>
       </c>
       <c r="N8">
-        <v>59.518476</v>
+        <v>73.253789</v>
       </c>
       <c r="O8">
-        <v>0.3719689496218465</v>
+        <v>0.3036664120961408</v>
       </c>
       <c r="P8">
-        <v>0.3719689496218466</v>
+        <v>0.3036664120961408</v>
       </c>
       <c r="Q8">
-        <v>16.412927365548</v>
+        <v>20.20060322290811</v>
       </c>
       <c r="R8">
-        <v>147.716346289932</v>
+        <v>181.805429006173</v>
       </c>
       <c r="S8">
-        <v>0.04028125165514215</v>
+        <v>0.01878526282513697</v>
       </c>
       <c r="T8">
-        <v>0.04028125165514217</v>
+        <v>0.01878526282513697</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.8272856666666666</v>
+        <v>0.8272856666666667</v>
       </c>
       <c r="H9">
         <v>2.481857</v>
       </c>
       <c r="I9">
-        <v>0.1082919735534193</v>
+        <v>0.0618615101204856</v>
       </c>
       <c r="J9">
-        <v>0.1082919735534193</v>
+        <v>0.06186151012048561</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.897293666666666</v>
+        <v>3.585005</v>
       </c>
       <c r="N9">
-        <v>11.691881</v>
+        <v>10.755015</v>
       </c>
       <c r="O9">
-        <v>0.07307002777882995</v>
+        <v>0.04458386196364773</v>
       </c>
       <c r="P9">
-        <v>0.07307002777882997</v>
+        <v>0.04458386196364771</v>
       </c>
       <c r="Q9">
-        <v>3.22417518922411</v>
+        <v>2.965823251428334</v>
       </c>
       <c r="R9">
-        <v>29.01757670301699</v>
+        <v>26.692409262855</v>
       </c>
       <c r="S9">
-        <v>0.007912897515772664</v>
+        <v>0.002758025028074527</v>
       </c>
       <c r="T9">
-        <v>0.007912897515772668</v>
+        <v>0.002758025028074527</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.107847</v>
+        <v>0.073169</v>
       </c>
       <c r="H10">
-        <v>0.323541</v>
+        <v>0.219507</v>
       </c>
       <c r="I10">
-        <v>0.01411720877369116</v>
+        <v>0.005471320266243153</v>
       </c>
       <c r="J10">
-        <v>0.01411720877369116</v>
+        <v>0.005471320266243153</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>29.463391</v>
+        <v>52.271196</v>
       </c>
       <c r="N10">
-        <v>88.390173</v>
+        <v>156.813588</v>
       </c>
       <c r="O10">
-        <v>0.5524066141697462</v>
+        <v>0.6500553798777896</v>
       </c>
       <c r="P10">
-        <v>0.5524066141697463</v>
+        <v>0.6500553798777895</v>
       </c>
       <c r="Q10">
-        <v>3.177538329177</v>
+        <v>3.824631140124</v>
       </c>
       <c r="R10">
-        <v>28.597844962593</v>
+        <v>34.421680261116</v>
       </c>
       <c r="S10">
-        <v>0.00779843950020217</v>
+        <v>0.003556661174105742</v>
       </c>
       <c r="T10">
-        <v>0.007798439500202173</v>
+        <v>0.003556661174105742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.107847</v>
+        <v>0.073169</v>
       </c>
       <c r="H11">
-        <v>0.323541</v>
+        <v>0.219507</v>
       </c>
       <c r="I11">
-        <v>0.01411720877369116</v>
+        <v>0.005471320266243153</v>
       </c>
       <c r="J11">
-        <v>0.01411720877369116</v>
+        <v>0.005471320266243153</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>0.408729</v>
       </c>
       <c r="O11">
-        <v>0.002554408429577191</v>
+        <v>0.001694346062422021</v>
       </c>
       <c r="P11">
-        <v>0.002554408429577191</v>
+        <v>0.00169434606242202</v>
       </c>
       <c r="Q11">
-        <v>0.014693398821</v>
+        <v>0.009968764067000001</v>
       </c>
       <c r="R11">
-        <v>0.132240589389</v>
+        <v>0.089718876603</v>
       </c>
       <c r="S11">
-        <v>3.606111709361778E-05</v>
+        <v>9.270309949358889E-06</v>
       </c>
       <c r="T11">
-        <v>3.606111709361779E-05</v>
+        <v>9.270309949358887E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.107847</v>
+        <v>0.073169</v>
       </c>
       <c r="H12">
-        <v>0.323541</v>
+        <v>0.219507</v>
       </c>
       <c r="I12">
-        <v>0.01411720877369116</v>
+        <v>0.005471320266243153</v>
       </c>
       <c r="J12">
-        <v>0.01411720877369116</v>
+        <v>0.005471320266243153</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.839492</v>
+        <v>24.41792966666667</v>
       </c>
       <c r="N12">
-        <v>59.518476</v>
+        <v>73.253789</v>
       </c>
       <c r="O12">
-        <v>0.3719689496218465</v>
+        <v>0.3036664120961408</v>
       </c>
       <c r="P12">
-        <v>0.3719689496218466</v>
+        <v>0.3036664120961408</v>
       </c>
       <c r="Q12">
-        <v>2.139629693724</v>
+        <v>1.786635495780333</v>
       </c>
       <c r="R12">
-        <v>19.256667243516</v>
+        <v>16.079719462023</v>
       </c>
       <c r="S12">
-        <v>0.005251163319142217</v>
+        <v>0.00166145619467896</v>
       </c>
       <c r="T12">
-        <v>0.00525116331914222</v>
+        <v>0.00166145619467896</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.107847</v>
+        <v>0.073169</v>
       </c>
       <c r="H13">
-        <v>0.323541</v>
+        <v>0.219507</v>
       </c>
       <c r="I13">
-        <v>0.01411720877369116</v>
+        <v>0.005471320266243153</v>
       </c>
       <c r="J13">
-        <v>0.01411720877369116</v>
+        <v>0.005471320266243153</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.897293666666666</v>
+        <v>3.585005</v>
       </c>
       <c r="N13">
-        <v>11.691881</v>
+        <v>10.755015</v>
       </c>
       <c r="O13">
-        <v>0.07307002777882995</v>
+        <v>0.04458386196364773</v>
       </c>
       <c r="P13">
-        <v>0.07307002777882997</v>
+        <v>0.04458386196364771</v>
       </c>
       <c r="Q13">
-        <v>0.4203114300689999</v>
+        <v>0.262311230845</v>
       </c>
       <c r="R13">
-        <v>3.782802870620999</v>
+        <v>2.360801077605</v>
       </c>
       <c r="S13">
-        <v>0.001031544837253155</v>
+        <v>0.000243932587509093</v>
       </c>
       <c r="T13">
-        <v>0.001031544837253156</v>
+        <v>0.000243932587509093</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.374064</v>
+        <v>0.029595</v>
       </c>
       <c r="H14">
-        <v>1.122192</v>
+        <v>0.088785</v>
       </c>
       <c r="I14">
-        <v>0.04896510410787515</v>
+        <v>0.002213009926054287</v>
       </c>
       <c r="J14">
-        <v>0.04896510410787516</v>
+        <v>0.002213009926054287</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.463391</v>
+        <v>52.271196</v>
       </c>
       <c r="N14">
-        <v>88.390173</v>
+        <v>156.813588</v>
       </c>
       <c r="O14">
-        <v>0.5524066141697462</v>
+        <v>0.6500553798777896</v>
       </c>
       <c r="P14">
-        <v>0.5524066141697463</v>
+        <v>0.6500553798777895</v>
       </c>
       <c r="Q14">
-        <v>11.021193891024</v>
+        <v>1.54696604562</v>
       </c>
       <c r="R14">
-        <v>99.19074501921601</v>
+        <v>13.92269441058</v>
       </c>
       <c r="S14">
-        <v>0.02704864737270044</v>
+        <v>0.001438579008154538</v>
       </c>
       <c r="T14">
-        <v>0.02704864737270045</v>
+        <v>0.001438579008154538</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.374064</v>
+        <v>0.029595</v>
       </c>
       <c r="H15">
-        <v>1.122192</v>
+        <v>0.088785</v>
       </c>
       <c r="I15">
-        <v>0.04896510410787515</v>
+        <v>0.002213009926054287</v>
       </c>
       <c r="J15">
-        <v>0.04896510410787516</v>
+        <v>0.002213009926054287</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>0.408729</v>
       </c>
       <c r="O15">
-        <v>0.002554408429577191</v>
+        <v>0.001694346062422021</v>
       </c>
       <c r="P15">
-        <v>0.002554408429577191</v>
+        <v>0.00169434606242202</v>
       </c>
       <c r="Q15">
-        <v>0.05096360155200001</v>
+        <v>0.004032111585</v>
       </c>
       <c r="R15">
-        <v>0.458672413968</v>
+        <v>0.036289004265</v>
       </c>
       <c r="S15">
-        <v>0.000125076874688281</v>
+        <v>3.749604654310929E-06</v>
       </c>
       <c r="T15">
-        <v>0.0001250768746882811</v>
+        <v>3.749604654310927E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.374064</v>
+        <v>0.029595</v>
       </c>
       <c r="H16">
-        <v>1.122192</v>
+        <v>0.088785</v>
       </c>
       <c r="I16">
-        <v>0.04896510410787515</v>
+        <v>0.002213009926054287</v>
       </c>
       <c r="J16">
-        <v>0.04896510410787516</v>
+        <v>0.002213009926054287</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.839492</v>
+        <v>24.41792966666667</v>
       </c>
       <c r="N16">
-        <v>59.518476</v>
+        <v>73.253789</v>
       </c>
       <c r="O16">
-        <v>0.3719689496218465</v>
+        <v>0.3036664120961408</v>
       </c>
       <c r="P16">
-        <v>0.3719689496218466</v>
+        <v>0.3036664120961408</v>
       </c>
       <c r="Q16">
-        <v>7.421239735488</v>
+        <v>0.722648628485</v>
       </c>
       <c r="R16">
-        <v>66.79115761939201</v>
+        <v>6.503837656365</v>
       </c>
       <c r="S16">
-        <v>0.01821349834313068</v>
+        <v>0.0006720167841780512</v>
       </c>
       <c r="T16">
-        <v>0.01821349834313069</v>
+        <v>0.0006720167841780511</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.374064</v>
+        <v>0.029595</v>
       </c>
       <c r="H17">
-        <v>1.122192</v>
+        <v>0.088785</v>
       </c>
       <c r="I17">
-        <v>0.04896510410787515</v>
+        <v>0.002213009926054287</v>
       </c>
       <c r="J17">
-        <v>0.04896510410787516</v>
+        <v>0.002213009926054287</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.897293666666666</v>
+        <v>3.585005</v>
       </c>
       <c r="N17">
-        <v>11.691881</v>
+        <v>10.755015</v>
       </c>
       <c r="O17">
-        <v>0.07307002777882995</v>
+        <v>0.04458386196364773</v>
       </c>
       <c r="P17">
-        <v>0.07307002777882997</v>
+        <v>0.04458386196364771</v>
       </c>
       <c r="Q17">
-        <v>1.457837258128</v>
+        <v>0.106098222975</v>
       </c>
       <c r="R17">
-        <v>13.120535323152</v>
+        <v>0.9548840067750001</v>
       </c>
       <c r="S17">
-        <v>0.003577881517355738</v>
+        <v>9.866452906738658E-05</v>
       </c>
       <c r="T17">
-        <v>0.003577881517355739</v>
+        <v>9.866452906738656E-05</v>
       </c>
     </row>
   </sheetData>
